--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42952</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42770</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E8" s="3">
         <v>10800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E9" s="3">
         <v>7200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>700</v>
       </c>
       <c r="P26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>700</v>
       </c>
       <c r="P27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,16 +1632,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1591,17 +1652,17 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>200</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>700</v>
       </c>
       <c r="P33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>700</v>
       </c>
       <c r="P35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42952</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42770</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
         <v>22500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>25600</v>
       </c>
       <c r="N41" s="3">
         <v>25600</v>
       </c>
       <c r="O41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="P41" s="3">
         <v>25400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2020,28 +2110,28 @@
         <v>10700</v>
       </c>
       <c r="E42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F42" s="3">
         <v>10600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6600</v>
       </c>
       <c r="H42" s="3">
         <v>6600</v>
       </c>
       <c r="I42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J42" s="3">
         <v>2600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
-      </c>
-      <c r="L42" s="3">
-        <v>600</v>
       </c>
       <c r="M42" s="3">
         <v>600</v>
@@ -2053,98 +2143,107 @@
         <v>600</v>
       </c>
       <c r="P42" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E44" s="3">
         <v>10600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>7900</v>
       </c>
       <c r="N44" s="3">
         <v>7900</v>
       </c>
       <c r="O44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="P44" s="3">
         <v>7600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,87 +2251,93 @@
         <v>1500</v>
       </c>
       <c r="E45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E46" s="3">
         <v>46800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>44100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2252,75 +2357,81 @@
         <v>1900</v>
       </c>
       <c r="I47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4800</v>
       </c>
       <c r="I48" s="3">
         <v>4800</v>
       </c>
       <c r="J48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K48" s="3">
         <v>4700</v>
       </c>
       <c r="L48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="M48" s="3">
         <v>4300</v>
       </c>
       <c r="N48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O48" s="3">
         <v>4200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4100</v>
       </c>
       <c r="P48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,22 +2568,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4300</v>
       </c>
       <c r="H52" s="3">
         <v>4300</v>
@@ -2475,28 +2595,31 @@
         <v>4300</v>
       </c>
       <c r="J52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E54" s="3">
         <v>58400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>50900</v>
       </c>
       <c r="P54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,43 +2749,44 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2841,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>7300</v>
       </c>
       <c r="G60" s="3">
         <v>7300</v>
       </c>
       <c r="H60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,40 +2982,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>800</v>
       </c>
       <c r="N62" s="3">
         <v>800</v>
@@ -2881,10 +3027,13 @@
         <v>800</v>
       </c>
       <c r="P62" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>7300</v>
       </c>
       <c r="G66" s="3">
         <v>7300</v>
       </c>
       <c r="H66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E72" s="3">
         <v>55300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>51900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>48800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E76" s="3">
         <v>49500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>46600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42952</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42770</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>700</v>
       </c>
       <c r="P81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,17 +3826,18 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -3646,11 +3845,11 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4184,46 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,23 +4567,26 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4348,28 +4594,31 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43589</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43498</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43407</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43225</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43134</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42952</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42770</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E8" s="3">
         <v>9400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E9" s="3">
         <v>6600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>700</v>
       </c>
       <c r="Q26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>700</v>
       </c>
       <c r="Q27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,19 +1693,22 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1655,17 +1716,17 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>200</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>700</v>
       </c>
       <c r="Q33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>700</v>
       </c>
       <c r="Q35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43589</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43498</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43407</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43225</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43134</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42952</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42770</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,87 +2140,91 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>25600</v>
       </c>
       <c r="O41" s="3">
         <v>25600</v>
       </c>
       <c r="P41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>25400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="E42" s="3">
         <v>10700</v>
       </c>
       <c r="F42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G42" s="3">
         <v>10600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6600</v>
       </c>
       <c r="I42" s="3">
         <v>6600</v>
       </c>
       <c r="J42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700</v>
-      </c>
-      <c r="M42" s="3">
-        <v>600</v>
       </c>
       <c r="N42" s="3">
         <v>600</v>
@@ -2146,198 +2236,213 @@
         <v>600</v>
       </c>
       <c r="Q42" s="3">
+        <v>600</v>
+      </c>
+      <c r="R42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E44" s="3">
         <v>10700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>7900</v>
       </c>
       <c r="O44" s="3">
         <v>7900</v>
       </c>
       <c r="P44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q44" s="3">
         <v>7600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
         <v>1500</v>
       </c>
       <c r="F45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E46" s="3">
         <v>44000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>44100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2360,31 +2465,34 @@
         <v>1900</v>
       </c>
       <c r="J47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,46 +2500,49 @@
         <v>5900</v>
       </c>
       <c r="E48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4800</v>
       </c>
       <c r="J48" s="3">
         <v>4800</v>
       </c>
       <c r="K48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="L48" s="3">
         <v>4700</v>
       </c>
       <c r="M48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="N48" s="3">
         <v>4300</v>
       </c>
       <c r="O48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P48" s="3">
         <v>4200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4100</v>
       </c>
       <c r="Q48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,25 +2688,28 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4300</v>
       </c>
       <c r="I52" s="3">
         <v>4300</v>
@@ -2598,28 +2718,31 @@
         <v>4300</v>
       </c>
       <c r="K52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E54" s="3">
         <v>56900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>51800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>50900</v>
       </c>
       <c r="Q54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,46 +2880,47 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,102 +2978,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>7300</v>
       </c>
       <c r="H60" s="3">
         <v>7300</v>
       </c>
       <c r="I60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,43 +3128,46 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>800</v>
@@ -3030,10 +3176,13 @@
         <v>800</v>
       </c>
       <c r="Q62" s="3">
+        <v>800</v>
+      </c>
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>7300</v>
       </c>
       <c r="H66" s="3">
         <v>7300</v>
       </c>
       <c r="I66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J66" s="3">
         <v>7900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E72" s="3">
         <v>57000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>55300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>51900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E76" s="3">
         <v>50500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43589</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43498</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43407</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43225</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43134</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42952</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42770</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>700</v>
       </c>
       <c r="Q81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,11 +4035,11 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3848,11 +4047,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>900</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,26 +4813,29 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4597,28 +4843,31 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E7" s="2">
         <v>43953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42952</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42770</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E9" s="3">
         <v>7100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>700</v>
       </c>
       <c r="R26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>700</v>
       </c>
       <c r="R27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,11 +1768,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1719,17 +1780,17 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>200</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>700</v>
       </c>
       <c r="R33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>700</v>
       </c>
       <c r="R35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E38" s="2">
         <v>43953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42952</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42770</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,93 +2227,97 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E41" s="3">
         <v>17000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>25600</v>
       </c>
       <c r="P41" s="3">
         <v>25600</v>
       </c>
       <c r="Q41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="R41" s="3">
         <v>25400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E42" s="3">
         <v>10500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>10700</v>
       </c>
       <c r="F42" s="3">
         <v>10700</v>
       </c>
       <c r="G42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H42" s="3">
         <v>10600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8700</v>
-      </c>
-      <c r="I42" s="3">
-        <v>6600</v>
       </c>
       <c r="J42" s="3">
         <v>6600</v>
       </c>
       <c r="K42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L42" s="3">
         <v>2600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>700</v>
-      </c>
-      <c r="N42" s="3">
-        <v>600</v>
       </c>
       <c r="O42" s="3">
         <v>600</v>
@@ -2239,60 +2329,66 @@
         <v>600</v>
       </c>
       <c r="R42" s="3">
+        <v>600</v>
+      </c>
+      <c r="S42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2300,49 +2396,52 @@
         <v>10600</v>
       </c>
       <c r="E44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F44" s="3">
         <v>10700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>7900</v>
       </c>
       <c r="P44" s="3">
         <v>7900</v>
       </c>
       <c r="Q44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="R44" s="3">
         <v>7600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,104 +2449,110 @@
         <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F45" s="3">
         <v>1500</v>
       </c>
       <c r="G45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E46" s="3">
         <v>39900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="3">
         <v>1900</v>
@@ -2468,31 +2573,34 @@
         <v>1900</v>
       </c>
       <c r="K47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,46 +2611,49 @@
         <v>5900</v>
       </c>
       <c r="F48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4800</v>
       </c>
       <c r="K48" s="3">
         <v>4800</v>
       </c>
       <c r="L48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="M48" s="3">
         <v>4700</v>
       </c>
       <c r="N48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="O48" s="3">
         <v>4300</v>
       </c>
       <c r="P48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4100</v>
       </c>
       <c r="R48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,19 +2820,19 @@
         <v>5200</v>
       </c>
       <c r="E52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F52" s="3">
         <v>5000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4300</v>
       </c>
       <c r="J52" s="3">
         <v>4300</v>
@@ -2721,28 +2841,31 @@
         <v>4300</v>
       </c>
       <c r="L52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E54" s="3">
         <v>53000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>51900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>51800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>50900</v>
       </c>
       <c r="R54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,49 +3011,50 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,108 +3115,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>7300</v>
       </c>
       <c r="I60" s="3">
         <v>7300</v>
       </c>
       <c r="J60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,35 +3288,35 @@
       <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="3">
+        <v>800</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>800</v>
       </c>
       <c r="P62" s="3">
         <v>800</v>
@@ -3179,10 +3325,13 @@
         <v>800</v>
       </c>
       <c r="R62" s="3">
+        <v>800</v>
+      </c>
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7300</v>
       </c>
       <c r="I66" s="3">
         <v>7300</v>
       </c>
       <c r="J66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K66" s="3">
         <v>7900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E72" s="3">
         <v>54900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>57000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>55300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>51900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E76" s="3">
         <v>47900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E80" s="2">
         <v>43953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42952</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42770</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>700</v>
       </c>
       <c r="R81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,11 +4237,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4050,11 +4249,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,49 +4626,52 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>900</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,29 +5059,32 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4846,28 +5092,31 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,271 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43134</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42952</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42770</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>9400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>12700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>8900</v>
       </c>
       <c r="Q8" s="3">
         <v>10000</v>
       </c>
       <c r="R8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="S8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T8" s="3">
         <v>8600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9300</v>
       </c>
       <c r="J9" s="3">
         <v>8100</v>
       </c>
       <c r="K9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M9" s="3">
         <v>8500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>7600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F10" s="3">
         <v>2400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2900</v>
       </c>
       <c r="K10" s="3">
         <v>3400</v>
       </c>
       <c r="L10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N10" s="3">
         <v>2700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2200</v>
       </c>
       <c r="O10" s="3">
         <v>2300</v>
       </c>
       <c r="P10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +949,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1004,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1063,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1122,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1181,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1205,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F17" s="3">
         <v>7500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1275,58 @@
         <v>1300</v>
       </c>
       <c r="E18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2300</v>
       </c>
       <c r="I18" s="3">
         <v>2100</v>
       </c>
       <c r="J18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1346,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1519,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1600</v>
       </c>
       <c r="R23" s="3">
         <v>1100</v>
       </c>
       <c r="S23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>800</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>500</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
       </c>
       <c r="S24" s="3">
+        <v>500</v>
+      </c>
+      <c r="T24" s="3">
+        <v>400</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1696,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1100</v>
       </c>
       <c r="R26" s="3">
         <v>700</v>
       </c>
       <c r="S26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1100</v>
       </c>
       <c r="R27" s="3">
         <v>700</v>
       </c>
       <c r="S27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1873,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,32 +1893,32 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>200</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>200</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1810,8 +1932,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1991,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2050,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-300</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1100</v>
       </c>
       <c r="R33" s="3">
         <v>700</v>
       </c>
       <c r="S33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2227,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1100</v>
       </c>
       <c r="R35" s="3">
         <v>700</v>
       </c>
       <c r="S35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43134</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42952</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42770</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2377,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,102 +2400,110 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F41" s="3">
         <v>20900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>19300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>22500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>28000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>28400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>30500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>29700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>27300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>27900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>25600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>25600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>25400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F42" s="3">
         <v>8500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>10500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>10700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>10700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>10600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>8700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>6600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>6600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>700</v>
       </c>
       <c r="O42" s="3">
         <v>600</v>
       </c>
       <c r="P42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q42" s="3">
         <v>600</v>
@@ -2332,63 +2512,75 @@
         <v>600</v>
       </c>
       <c r="S42" s="3">
+        <v>600</v>
+      </c>
+      <c r="T42" s="3">
+        <v>600</v>
+      </c>
+      <c r="U42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1700</v>
       </c>
       <c r="M43" s="3">
         <v>1800</v>
       </c>
       <c r="N43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2396,158 +2588,176 @@
         <v>10600</v>
       </c>
       <c r="E44" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F44" s="3">
         <v>10600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>10700</v>
       </c>
       <c r="G44" s="3">
         <v>10600</v>
       </c>
       <c r="H44" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J44" s="3">
         <v>9100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>7500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>7900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>7900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>7600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2000</v>
       </c>
       <c r="L45" s="3">
         <v>2200</v>
       </c>
       <c r="M45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>2400</v>
       </c>
       <c r="Q45" s="3">
         <v>2600</v>
       </c>
       <c r="R45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F46" s="3">
         <v>42200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>39900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>44000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>46800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>44600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>44500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>46800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>46100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>44100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>42300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>40900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>42100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>39700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>39500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>38800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2555,10 +2765,10 @@
         <v>2000</v>
       </c>
       <c r="E47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="3">
         <v>1900</v>
@@ -2576,36 +2786,42 @@
         <v>1900</v>
       </c>
       <c r="L47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M47" s="3">
         <v>1900</v>
       </c>
       <c r="N47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P47" s="3">
         <v>3000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
         <v>5900</v>
@@ -2614,13 +2830,13 @@
         <v>5900</v>
       </c>
       <c r="G48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I48" s="3">
         <v>5000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4800</v>
       </c>
       <c r="J48" s="3">
         <v>4900</v>
@@ -2629,31 +2845,37 @@
         <v>4800</v>
       </c>
       <c r="L48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O48" s="3">
         <v>4700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2927,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2986,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3045,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>4300</v>
       </c>
       <c r="L52" s="3">
         <v>4300</v>
       </c>
       <c r="M52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3163,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>59800</v>
+      </c>
+      <c r="F54" s="3">
         <v>55200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>53000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>56900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>58400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>56000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>55600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>57900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>57000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>53300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>53900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>54100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>51900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>51800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>50900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3249,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,46 +3272,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>1100</v>
       </c>
       <c r="J57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>1100</v>
       </c>
       <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>700</v>
@@ -3060,13 +3322,19 @@
         <v>800</v>
       </c>
       <c r="R57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>800</v>
+      </c>
+      <c r="U57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,114 +3386,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>3800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>4100</v>
       </c>
       <c r="R59" s="3">
         <v>3800</v>
       </c>
       <c r="S59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3563,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,47 +3583,53 @@
       <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="3">
+        <v>800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>800</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1100</v>
       </c>
       <c r="P62" s="3">
         <v>800</v>
       </c>
       <c r="Q62" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="R62" s="3">
         <v>800</v>
       </c>
       <c r="S62" s="3">
+        <v>800</v>
+      </c>
+      <c r="T62" s="3">
+        <v>800</v>
+      </c>
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3681,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3740,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3799,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3885,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3940,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3999,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4058,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4117,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F72" s="3">
         <v>56100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>54900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>57000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>55300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>52400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>49800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>51900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>50400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>48800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>47500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>47200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>46200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>45300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>44700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>44200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4235,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4294,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4353,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F76" s="3">
         <v>49100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>47900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>50500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>49500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>48200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>48300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>50600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>49100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>47500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>46200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>48400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>47400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>46600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>46000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>45500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4471,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43134</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42952</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42770</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1100</v>
       </c>
       <c r="R81" s="3">
         <v>700</v>
       </c>
       <c r="S81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,41 +4621,43 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4278,8 +4676,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4735,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4794,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4853,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4912,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4971,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5057,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-400</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5171,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5230,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F94" s="3">
         <v>2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>900</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5316,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5371,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5430,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5489,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5548,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,52 +5563,58 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-3200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5666,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F102" s="3">
         <v>3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,284 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43953</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43862</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43771</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43680</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43589</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43498</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43407</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43316</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43225</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43134</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43043</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42952</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42861</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42770</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E9" s="3">
         <v>6600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1086,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1148,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,126 +1381,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,126 +1565,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>700</v>
       </c>
       <c r="U26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>700</v>
       </c>
       <c r="U27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1899,11 +1960,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1911,17 +1972,17 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2123,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>700</v>
       </c>
       <c r="U33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>700</v>
       </c>
       <c r="U35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43953</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43862</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43771</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43680</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43589</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43498</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43407</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43316</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43225</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43134</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43043</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42952</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42861</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42770</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,111 +2488,115 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E41" s="3">
         <v>33000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>25600</v>
       </c>
       <c r="S41" s="3">
         <v>25600</v>
       </c>
       <c r="T41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="U41" s="3">
         <v>25400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E42" s="3">
         <v>3500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>10700</v>
       </c>
       <c r="I42" s="3">
         <v>10700</v>
       </c>
       <c r="J42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K42" s="3">
         <v>10600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8700</v>
-      </c>
-      <c r="L42" s="3">
-        <v>6600</v>
       </c>
       <c r="M42" s="3">
         <v>6600</v>
       </c>
       <c r="N42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O42" s="3">
         <v>2600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>700</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>600</v>
       </c>
       <c r="R42" s="3">
         <v>600</v>
@@ -2518,187 +2608,199 @@
         <v>600</v>
       </c>
       <c r="U42" s="3">
+        <v>600</v>
+      </c>
+      <c r="V42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E44" s="3">
         <v>10600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>10600</v>
       </c>
       <c r="G44" s="3">
         <v>10600</v>
       </c>
       <c r="H44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I44" s="3">
         <v>10700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>7900</v>
       </c>
       <c r="S44" s="3">
         <v>7900</v>
       </c>
       <c r="T44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="U44" s="3">
         <v>7600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1300</v>
       </c>
       <c r="G45" s="3">
         <v>1300</v>
       </c>
       <c r="H45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="I45" s="3">
         <v>1500</v>
       </c>
       <c r="J45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2706,58 +2808,61 @@
         <v>50100</v>
       </c>
       <c r="E46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F46" s="3">
         <v>47000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>44600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2771,7 +2876,7 @@
         <v>2000</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
         <v>1900</v>
@@ -2792,39 +2897,42 @@
         <v>1900</v>
       </c>
       <c r="N47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E48" s="3">
         <v>6100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5900</v>
       </c>
       <c r="F48" s="3">
         <v>5900</v>
@@ -2836,46 +2944,49 @@
         <v>5900</v>
       </c>
       <c r="I48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4800</v>
       </c>
       <c r="N48" s="3">
         <v>4800</v>
       </c>
       <c r="O48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="P48" s="3">
         <v>4700</v>
       </c>
       <c r="Q48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="R48" s="3">
         <v>4300</v>
       </c>
       <c r="S48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T48" s="3">
         <v>4200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>4100</v>
       </c>
       <c r="U48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2933,8 +3044,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,37 +3168,40 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5200</v>
       </c>
       <c r="G52" s="3">
         <v>5200</v>
       </c>
       <c r="H52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I52" s="3">
         <v>5000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>4300</v>
       </c>
       <c r="M52" s="3">
         <v>4300</v>
@@ -3090,28 +3210,31 @@
         <v>4300</v>
       </c>
       <c r="O52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P52" s="3">
         <v>4400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E54" s="3">
         <v>63500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>54100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>51900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>51800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>50900</v>
       </c>
       <c r="U54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,58 +3404,59 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>800</v>
       </c>
       <c r="T57" s="3">
         <v>800</v>
@@ -3333,8 +3464,11 @@
       <c r="U57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3392,126 +3526,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>7300</v>
       </c>
       <c r="L60" s="3">
         <v>7300</v>
       </c>
       <c r="M60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3569,8 +3712,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3589,35 +3735,35 @@
       <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="3">
+        <v>800</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>800</v>
       </c>
       <c r="S62" s="3">
         <v>800</v>
@@ -3626,10 +3772,13 @@
         <v>800</v>
       </c>
       <c r="U62" s="3">
+        <v>800</v>
+      </c>
+      <c r="V62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>7300</v>
       </c>
       <c r="L66" s="3">
         <v>7300</v>
       </c>
       <c r="M66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E72" s="3">
         <v>59000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>58000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>56100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>57000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E76" s="3">
         <v>52000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>45500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43953</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43862</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43771</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43680</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43589</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43498</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43407</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43316</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43225</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43134</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43043</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42952</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42861</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42770</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>700</v>
       </c>
       <c r="U81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,19 +4821,20 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4644,11 +4843,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4656,11 +4855,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4682,8 +4881,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,17 +5279,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5077,49 +5298,52 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
       </c>
       <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>900</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,13 +5797,16 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5569,23 +5815,23 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5593,28 +5839,31 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5921,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,297 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43680</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43589</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43498</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43407</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43316</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43225</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43134</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43043</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42952</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42861</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42770</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E8" s="3">
         <v>14700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,8 +1106,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,8 +1171,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,8 +1415,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1391,123 +1425,129 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,132 +1608,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>700</v>
       </c>
       <c r="V26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>700</v>
       </c>
       <c r="V27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1963,11 +2024,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1975,17 +2036,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,8 +2193,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2135,123 +2205,129 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>700</v>
       </c>
       <c r="V33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>700</v>
       </c>
       <c r="V35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43680</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43589</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43498</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43407</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43316</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43225</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43134</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43043</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42952</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42861</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42770</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,70 +2575,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E41" s="3">
         <v>33200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27900</v>
-      </c>
-      <c r="S41" s="3">
-        <v>25600</v>
       </c>
       <c r="T41" s="3">
         <v>25600</v>
       </c>
       <c r="U41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="V41" s="3">
         <v>25400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2560,46 +2650,46 @@
         <v>2700</v>
       </c>
       <c r="E42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F42" s="3">
         <v>3500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>10700</v>
       </c>
       <c r="J42" s="3">
         <v>10700</v>
       </c>
       <c r="K42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L42" s="3">
         <v>10600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8700</v>
-      </c>
-      <c r="M42" s="3">
-        <v>6600</v>
       </c>
       <c r="N42" s="3">
         <v>6600</v>
       </c>
       <c r="O42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P42" s="3">
         <v>2600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>700</v>
-      </c>
-      <c r="R42" s="3">
-        <v>600</v>
       </c>
       <c r="S42" s="3">
         <v>600</v>
@@ -2611,263 +2701,278 @@
         <v>600</v>
       </c>
       <c r="V42" s="3">
+        <v>600</v>
+      </c>
+      <c r="W42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E44" s="3">
         <v>10200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>10600</v>
       </c>
       <c r="H44" s="3">
         <v>10600</v>
       </c>
       <c r="I44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J44" s="3">
         <v>10700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7500</v>
-      </c>
-      <c r="S44" s="3">
-        <v>7900</v>
       </c>
       <c r="T44" s="3">
         <v>7900</v>
       </c>
       <c r="U44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="V44" s="3">
         <v>7600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1300</v>
       </c>
       <c r="H45" s="3">
         <v>1300</v>
       </c>
       <c r="I45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="J45" s="3">
         <v>1500</v>
       </c>
       <c r="K45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>50100</v>
+        <v>49100</v>
       </c>
       <c r="E46" s="3">
         <v>50100</v>
       </c>
       <c r="F46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="G46" s="3">
         <v>47000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>42200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>44000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E47" s="3">
         <v>2000</v>
@@ -2879,7 +2984,7 @@
         <v>2000</v>
       </c>
       <c r="H47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I47" s="3">
         <v>1900</v>
@@ -2900,31 +3005,34 @@
         <v>1900</v>
       </c>
       <c r="O47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,10 +3040,10 @@
         <v>7600</v>
       </c>
       <c r="E48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F48" s="3">
         <v>6100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5900</v>
       </c>
       <c r="G48" s="3">
         <v>5900</v>
@@ -2947,46 +3055,49 @@
         <v>5900</v>
       </c>
       <c r="J48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4800</v>
       </c>
       <c r="O48" s="3">
         <v>4800</v>
       </c>
       <c r="P48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="Q48" s="3">
         <v>4700</v>
       </c>
       <c r="R48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="S48" s="3">
         <v>4300</v>
       </c>
       <c r="T48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U48" s="3">
         <v>4200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>4100</v>
       </c>
       <c r="V48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3047,8 +3158,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,40 +3288,43 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5200</v>
       </c>
       <c r="H52" s="3">
         <v>5200</v>
       </c>
       <c r="I52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J52" s="3">
         <v>5000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>4300</v>
       </c>
       <c r="N52" s="3">
         <v>4300</v>
@@ -3213,28 +3333,31 @@
         <v>4300</v>
       </c>
       <c r="P52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,70 +3418,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E54" s="3">
         <v>64800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>54100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>51900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>51800</v>
-      </c>
-      <c r="U54" s="3">
-        <v>50900</v>
       </c>
       <c r="V54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,61 +3535,62 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>800</v>
       </c>
       <c r="U57" s="3">
         <v>800</v>
@@ -3467,8 +3598,11 @@
       <c r="V57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3529,132 +3663,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E59" s="3">
         <v>12600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E60" s="3">
         <v>13900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>7300</v>
       </c>
       <c r="M60" s="3">
         <v>7300</v>
       </c>
       <c r="N60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O60" s="3">
         <v>7900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3715,8 +3858,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3738,35 +3884,35 @@
       <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="3">
+        <v>800</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>800</v>
       </c>
       <c r="T62" s="3">
         <v>800</v>
@@ -3775,10 +3921,13 @@
         <v>800</v>
       </c>
       <c r="V62" s="3">
+        <v>800</v>
+      </c>
+      <c r="W62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4118,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E66" s="3">
         <v>14600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7300</v>
       </c>
       <c r="M66" s="3">
         <v>7300</v>
       </c>
       <c r="N66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O66" s="3">
         <v>7900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4468,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E72" s="3">
         <v>57100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>59000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>58000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>57000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4728,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E76" s="3">
         <v>50100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>45500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43680</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43589</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43498</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43407</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43316</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43225</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43134</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43043</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42952</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42861</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42770</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>700</v>
       </c>
       <c r="V81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,8 +5020,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4831,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4846,11 +5045,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4858,11 +5057,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4884,8 +5083,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,20 +5500,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5301,49 +5522,52 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5693,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-200</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
       </c>
       <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>900</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,17 +6043,20 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5818,23 +6064,23 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5842,28 +6088,31 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5924,66 +6173,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,297 +665,310 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44506</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43953</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43862</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43771</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43680</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43589</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43498</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43407</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43316</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43225</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43134</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43043</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42952</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42861</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42770</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E8" s="3">
         <v>11800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>9300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,8 +992,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1058,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,8 +1126,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,8 +1194,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1239,8 +1262,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1287,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,138 +1449,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
       <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,138 +1651,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,138 +1855,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>700</v>
       </c>
       <c r="W26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>700</v>
       </c>
       <c r="W27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2059,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,11 +2088,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2039,17 +2100,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2066,8 +2127,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2195,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,138 +2263,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
       <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>700</v>
       </c>
       <c r="W33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,143 +2467,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>700</v>
       </c>
       <c r="W35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44506</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43953</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43862</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43771</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43680</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43589</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43498</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43407</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43316</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43225</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43134</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43043</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42952</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42861</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42770</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2636,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,73 +2662,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E41" s="3">
         <v>33700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27900</v>
-      </c>
-      <c r="T41" s="3">
-        <v>25600</v>
       </c>
       <c r="U41" s="3">
         <v>25600</v>
       </c>
       <c r="V41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="W41" s="3">
         <v>25400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2653,46 +2743,46 @@
         <v>2700</v>
       </c>
       <c r="F42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G42" s="3">
         <v>3500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10500</v>
-      </c>
-      <c r="J42" s="3">
-        <v>10700</v>
       </c>
       <c r="K42" s="3">
         <v>10700</v>
       </c>
       <c r="L42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="M42" s="3">
         <v>10600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8700</v>
-      </c>
-      <c r="N42" s="3">
-        <v>6600</v>
       </c>
       <c r="O42" s="3">
         <v>6600</v>
       </c>
       <c r="P42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>700</v>
-      </c>
-      <c r="S42" s="3">
-        <v>600</v>
       </c>
       <c r="T42" s="3">
         <v>600</v>
@@ -2704,270 +2794,285 @@
         <v>600</v>
       </c>
       <c r="W42" s="3">
+        <v>600</v>
+      </c>
+      <c r="X42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E44" s="3">
         <v>9400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>10600</v>
       </c>
       <c r="I44" s="3">
         <v>10600</v>
       </c>
       <c r="J44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K44" s="3">
         <v>10700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7500</v>
-      </c>
-      <c r="T44" s="3">
-        <v>7900</v>
       </c>
       <c r="U44" s="3">
         <v>7900</v>
       </c>
       <c r="V44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="W44" s="3">
         <v>7600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1300</v>
       </c>
       <c r="I45" s="3">
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
       </c>
       <c r="L45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E46" s="3">
         <v>49100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>50100</v>
       </c>
       <c r="F46" s="3">
         <v>50100</v>
       </c>
       <c r="G46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="H46" s="3">
         <v>47000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>44000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>39500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>38800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2975,7 +3080,7 @@
         <v>2100</v>
       </c>
       <c r="E47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F47" s="3">
         <v>2000</v>
@@ -2987,7 +3092,7 @@
         <v>2000</v>
       </c>
       <c r="I47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J47" s="3">
         <v>1900</v>
@@ -3008,45 +3113,48 @@
         <v>1900</v>
       </c>
       <c r="P47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7600</v>
+        <v>6800</v>
       </c>
       <c r="E48" s="3">
         <v>7600</v>
       </c>
       <c r="F48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G48" s="3">
         <v>6100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5900</v>
       </c>
       <c r="H48" s="3">
         <v>5900</v>
@@ -3058,46 +3166,49 @@
         <v>5900</v>
       </c>
       <c r="K48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4800</v>
       </c>
       <c r="P48" s="3">
         <v>4800</v>
       </c>
       <c r="Q48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="R48" s="3">
         <v>4700</v>
       </c>
       <c r="S48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="T48" s="3">
         <v>4300</v>
       </c>
       <c r="U48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V48" s="3">
         <v>4200</v>
-      </c>
-      <c r="V48" s="3">
-        <v>4100</v>
       </c>
       <c r="W48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3161,8 +3272,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3340,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,43 +3408,46 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5200</v>
       </c>
       <c r="I52" s="3">
         <v>5200</v>
       </c>
       <c r="J52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K52" s="3">
         <v>5000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>4300</v>
       </c>
       <c r="O52" s="3">
         <v>4300</v>
@@ -3336,28 +3456,31 @@
         <v>4300</v>
       </c>
       <c r="Q52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R52" s="3">
         <v>4400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,73 +3544,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E54" s="3">
         <v>63700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>54100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>51900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>51800</v>
-      </c>
-      <c r="V54" s="3">
-        <v>50900</v>
       </c>
       <c r="W54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3640,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,64 +3666,65 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
-      </c>
-      <c r="U57" s="3">
-        <v>800</v>
       </c>
       <c r="V57" s="3">
         <v>800</v>
@@ -3601,8 +3732,11 @@
       <c r="W57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3666,138 +3800,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E59" s="3">
         <v>14300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E60" s="3">
         <v>15100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>7300</v>
       </c>
       <c r="N60" s="3">
         <v>7300</v>
       </c>
       <c r="O60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3861,13 +4004,16 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>800</v>
@@ -3887,35 +4033,35 @@
       <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="3">
+        <v>800</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>800</v>
       </c>
       <c r="U62" s="3">
         <v>800</v>
@@ -3924,10 +4070,13 @@
         <v>800</v>
       </c>
       <c r="W62" s="3">
+        <v>800</v>
+      </c>
+      <c r="X62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4140,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4208,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,73 +4276,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E66" s="3">
         <v>15900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>7300</v>
       </c>
       <c r="N66" s="3">
         <v>7300</v>
       </c>
       <c r="O66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P66" s="3">
         <v>7900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4372,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4438,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4506,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4574,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,73 +4642,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E72" s="3">
         <v>58200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>57100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>59000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>58000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>56100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>57000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>44200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4778,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4846,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,73 +4914,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E76" s="3">
         <v>47700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>45500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,143 +5050,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44506</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43953</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43862</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43771</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43680</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43589</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43498</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43407</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43316</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43225</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43134</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43043</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42952</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42861</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42770</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>700</v>
       </c>
       <c r="W81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,8 +5219,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5033,13 +5232,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5048,11 +5247,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -5060,11 +5259,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5086,8 +5285,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5353,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5421,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5489,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5557,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5625,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,8 +5721,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,14 +5731,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5525,49 +5746,52 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5855,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,73 +5923,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
       </c>
       <c r="U94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>900</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,8 +6019,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5851,8 +6085,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6153,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6221,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,20 +6289,23 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6067,23 +6313,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -6091,28 +6337,31 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6176,69 +6425,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,310 +665,323 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44597</v>
+      </c>
+      <c r="E7" s="2">
         <v>44506</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43589</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43498</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43407</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43316</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43225</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43134</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43043</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42952</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42861</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42770</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E8" s="3">
         <v>9500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E9" s="3">
         <v>6700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1006,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,8 +1075,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,8 +1146,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1217,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1265,8 +1288,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1314,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,144 +1483,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>300</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
       </c>
       <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1654,144 +1694,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1907,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>700</v>
       </c>
       <c r="X26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>700</v>
       </c>
       <c r="X27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,40 +2120,43 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2103,17 +2164,17 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2130,8 +2191,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2262,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,144 +2333,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-300</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
       </c>
       <c r="P32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>700</v>
       </c>
       <c r="X33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2546,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>700</v>
       </c>
       <c r="X35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44597</v>
+      </c>
+      <c r="E38" s="2">
         <v>44506</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43589</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43498</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43407</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43316</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43225</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43134</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43043</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42952</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42861</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42770</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2722,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,81 +2749,85 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E41" s="3">
         <v>36100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27900</v>
-      </c>
-      <c r="U41" s="3">
-        <v>25600</v>
       </c>
       <c r="V41" s="3">
         <v>25600</v>
       </c>
       <c r="W41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="X41" s="3">
         <v>25400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3">
         <v>2700</v>
@@ -2746,46 +2836,46 @@
         <v>2700</v>
       </c>
       <c r="G42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H42" s="3">
         <v>3500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10500</v>
-      </c>
-      <c r="K42" s="3">
-        <v>10700</v>
       </c>
       <c r="L42" s="3">
         <v>10700</v>
       </c>
       <c r="M42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N42" s="3">
         <v>10600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8700</v>
-      </c>
-      <c r="O42" s="3">
-        <v>6600</v>
       </c>
       <c r="P42" s="3">
         <v>6600</v>
       </c>
       <c r="Q42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="R42" s="3">
         <v>2600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>700</v>
-      </c>
-      <c r="T42" s="3">
-        <v>600</v>
       </c>
       <c r="U42" s="3">
         <v>600</v>
@@ -2797,293 +2887,308 @@
         <v>600</v>
       </c>
       <c r="X42" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E44" s="3">
         <v>10400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>10600</v>
       </c>
       <c r="J44" s="3">
         <v>10600</v>
       </c>
       <c r="K44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L44" s="3">
         <v>10700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>7900</v>
       </c>
       <c r="V44" s="3">
         <v>7900</v>
       </c>
       <c r="W44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="X44" s="3">
         <v>7600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1300</v>
       </c>
       <c r="J45" s="3">
         <v>1300</v>
       </c>
       <c r="K45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L45" s="3">
         <v>1500</v>
       </c>
       <c r="M45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E46" s="3">
         <v>52300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>50100</v>
       </c>
       <c r="G46" s="3">
         <v>50100</v>
       </c>
       <c r="H46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="I46" s="3">
         <v>47000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>39700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>39500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>38800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E47" s="3">
         <v>2100</v>
       </c>
       <c r="F47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G47" s="3">
         <v>2000</v>
@@ -3095,7 +3200,7 @@
         <v>2000</v>
       </c>
       <c r="J47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K47" s="3">
         <v>1900</v>
@@ -3116,48 +3221,51 @@
         <v>1900</v>
       </c>
       <c r="Q47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R47" s="3">
         <v>1800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>6800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7600</v>
       </c>
       <c r="F48" s="3">
         <v>7600</v>
       </c>
       <c r="G48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H48" s="3">
         <v>6100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5900</v>
       </c>
       <c r="I48" s="3">
         <v>5900</v>
@@ -3169,46 +3277,49 @@
         <v>5900</v>
       </c>
       <c r="L48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4800</v>
       </c>
       <c r="Q48" s="3">
         <v>4800</v>
       </c>
       <c r="R48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="S48" s="3">
         <v>4700</v>
       </c>
       <c r="T48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="U48" s="3">
         <v>4300</v>
       </c>
       <c r="V48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W48" s="3">
         <v>4200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>4100</v>
       </c>
       <c r="X48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3275,8 +3386,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3457,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,46 +3528,49 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5200</v>
       </c>
       <c r="J52" s="3">
         <v>5200</v>
       </c>
       <c r="K52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>4300</v>
       </c>
       <c r="P52" s="3">
         <v>4300</v>
@@ -3459,28 +3579,31 @@
         <v>4300</v>
       </c>
       <c r="R52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S52" s="3">
         <v>4400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,76 +3670,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E54" s="3">
         <v>66200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>53900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>54100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>51900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>51800</v>
-      </c>
-      <c r="W54" s="3">
-        <v>50900</v>
       </c>
       <c r="X54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3770,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,67 +3797,68 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
-      </c>
-      <c r="V57" s="3">
-        <v>800</v>
       </c>
       <c r="W57" s="3">
         <v>800</v>
@@ -3735,8 +3866,11 @@
       <c r="X57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3803,144 +3937,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E59" s="3">
         <v>15800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E60" s="3">
         <v>16800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>7300</v>
       </c>
       <c r="O60" s="3">
         <v>7300</v>
       </c>
       <c r="P60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4007,8 +4150,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4016,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>800</v>
@@ -4036,35 +4182,35 @@
       <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="3">
+        <v>800</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>800</v>
       </c>
       <c r="V62" s="3">
         <v>800</v>
@@ -4073,10 +4219,13 @@
         <v>800</v>
       </c>
       <c r="X62" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4292,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4363,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,76 +4434,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E66" s="3">
         <v>16900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>7300</v>
       </c>
       <c r="O66" s="3">
         <v>7300</v>
       </c>
       <c r="P66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>7900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4534,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4603,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4674,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4745,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,76 +4816,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E72" s="3">
         <v>59700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>58200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>57100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>59000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>58000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>56100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>54900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>57000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>49800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>44700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4958,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5029,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,76 +5100,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E76" s="3">
         <v>49300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>47400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>46000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>45500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5242,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44597</v>
+      </c>
+      <c r="E80" s="2">
         <v>44506</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43589</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43498</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43407</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43316</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43225</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43134</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43043</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42952</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42861</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42770</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>700</v>
       </c>
       <c r="X81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,8 +5418,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5235,13 +5434,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5250,11 +5449,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -5262,11 +5461,11 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5288,8 +5487,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5558,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5629,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5700,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5771,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5842,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,26 +5942,27 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5749,49 +5970,52 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6082,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,76 +6153,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-200</v>
       </c>
       <c r="U94" s="3">
         <v>-200</v>
       </c>
       <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>900</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6253,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6088,8 +6322,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6393,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6464,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,23 +6535,26 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6316,23 +6562,23 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6340,28 +6586,31 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6428,72 +6677,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,323 +665,336 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44688</v>
+      </c>
+      <c r="E7" s="2">
         <v>44597</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44506</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43680</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43589</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43498</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43407</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43316</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43225</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43134</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43043</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42952</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42861</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42770</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E8" s="3">
         <v>10800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E9" s="3">
         <v>8100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,8 +1020,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1092,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1166,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,8 +1240,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1291,8 +1314,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1315,150 +1341,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1484,150 +1517,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
       <c r="Q20" s="3">
+        <v>300</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1697,79 +1737,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1777,70 +1823,73 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1910,150 +1959,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>700</v>
       </c>
       <c r="Y26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>700</v>
       </c>
       <c r="Y27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2123,8 +2181,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2149,17 +2210,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2167,17 +2228,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2194,8 +2255,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2265,8 +2329,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2336,150 +2403,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
       <c r="Q32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>700</v>
       </c>
       <c r="Y33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2549,155 +2625,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>700</v>
       </c>
       <c r="Y35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44688</v>
+      </c>
+      <c r="E38" s="2">
         <v>44597</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44506</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43680</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43589</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43498</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43407</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43316</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43225</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43134</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43043</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42952</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42861</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42770</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2723,8 +2808,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2750,79 +2836,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E41" s="3">
         <v>38900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27900</v>
-      </c>
-      <c r="V41" s="3">
-        <v>25600</v>
       </c>
       <c r="W41" s="3">
         <v>25600</v>
       </c>
       <c r="X41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="Y41" s="3">
         <v>25400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2830,7 +2920,7 @@
         <v>600</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="F42" s="3">
         <v>2700</v>
@@ -2839,46 +2929,46 @@
         <v>2700</v>
       </c>
       <c r="H42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I42" s="3">
         <v>3500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>10700</v>
       </c>
       <c r="M42" s="3">
         <v>10700</v>
       </c>
       <c r="N42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="O42" s="3">
         <v>10600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8700</v>
-      </c>
-      <c r="P42" s="3">
-        <v>6600</v>
       </c>
       <c r="Q42" s="3">
         <v>6600</v>
       </c>
       <c r="R42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="S42" s="3">
         <v>2600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>700</v>
-      </c>
-      <c r="U42" s="3">
-        <v>600</v>
       </c>
       <c r="V42" s="3">
         <v>600</v>
@@ -2890,294 +2980,309 @@
         <v>600</v>
       </c>
       <c r="Y42" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E44" s="3">
         <v>10900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>10600</v>
       </c>
       <c r="K44" s="3">
         <v>10600</v>
       </c>
       <c r="L44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M44" s="3">
         <v>10700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7500</v>
-      </c>
-      <c r="V44" s="3">
-        <v>7900</v>
       </c>
       <c r="W44" s="3">
         <v>7900</v>
       </c>
       <c r="X44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Y44" s="3">
         <v>7600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>1300</v>
       </c>
       <c r="L45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M45" s="3">
         <v>1500</v>
       </c>
       <c r="N45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E46" s="3">
         <v>53600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>50100</v>
       </c>
       <c r="H46" s="3">
         <v>50100</v>
       </c>
       <c r="I46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="J46" s="3">
         <v>47000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>40900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>39700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>39500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>38800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3185,13 +3290,13 @@
         <v>2200</v>
       </c>
       <c r="E47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F47" s="3">
         <v>2100</v>
       </c>
       <c r="G47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H47" s="3">
         <v>2000</v>
@@ -3203,7 +3308,7 @@
         <v>2000</v>
       </c>
       <c r="K47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L47" s="3">
         <v>1900</v>
@@ -3224,51 +3329,54 @@
         <v>1900</v>
       </c>
       <c r="R47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S47" s="3">
         <v>1800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7600</v>
       </c>
       <c r="G48" s="3">
         <v>7600</v>
       </c>
       <c r="H48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I48" s="3">
         <v>6100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5900</v>
       </c>
       <c r="J48" s="3">
         <v>5900</v>
@@ -3280,46 +3388,49 @@
         <v>5900</v>
       </c>
       <c r="M48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4800</v>
       </c>
       <c r="R48" s="3">
         <v>4800</v>
       </c>
       <c r="S48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="T48" s="3">
         <v>4700</v>
       </c>
       <c r="U48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="V48" s="3">
         <v>4300</v>
       </c>
       <c r="W48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X48" s="3">
         <v>4200</v>
-      </c>
-      <c r="X48" s="3">
-        <v>4100</v>
       </c>
       <c r="Y48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3389,8 +3500,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3460,8 +3574,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3531,8 +3648,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3540,40 +3660,40 @@
         <v>4200</v>
       </c>
       <c r="E52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F52" s="3">
         <v>4900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5200</v>
       </c>
       <c r="K52" s="3">
         <v>5200</v>
       </c>
       <c r="L52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>4300</v>
       </c>
       <c r="Q52" s="3">
         <v>4300</v>
@@ -3582,28 +3702,31 @@
         <v>4300</v>
       </c>
       <c r="S52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T52" s="3">
         <v>4400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3673,79 +3796,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E54" s="3">
         <v>66900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>53300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>53900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>54100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>51900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>51800</v>
-      </c>
-      <c r="X54" s="3">
-        <v>50900</v>
       </c>
       <c r="Y54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3771,8 +3900,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3798,70 +3928,71 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
-      </c>
-      <c r="W57" s="3">
-        <v>800</v>
       </c>
       <c r="X57" s="3">
         <v>800</v>
@@ -3869,8 +4000,11 @@
       <c r="Y57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3940,150 +4074,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E59" s="3">
         <v>15300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E60" s="3">
         <v>16300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>7300</v>
       </c>
       <c r="P60" s="3">
         <v>7300</v>
       </c>
       <c r="Q60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R60" s="3">
         <v>7900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4153,8 +4296,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4165,7 +4311,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>800</v>
@@ -4185,35 +4331,35 @@
       <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="M62" s="3">
+        <v>800</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>800</v>
       </c>
       <c r="W62" s="3">
         <v>800</v>
@@ -4222,10 +4368,13 @@
         <v>800</v>
       </c>
       <c r="Y62" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4295,8 +4444,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4366,8 +4518,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4437,79 +4592,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E66" s="3">
         <v>16400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>7300</v>
       </c>
       <c r="P66" s="3">
         <v>7300</v>
       </c>
       <c r="Q66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R66" s="3">
         <v>7900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4535,8 +4696,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4606,8 +4768,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4677,8 +4842,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4748,8 +4916,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4819,79 +4990,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E72" s="3">
         <v>60900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>59700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>58200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>57100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>59000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>58000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>56100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>51900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>45300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>44200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4961,8 +5138,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5032,8 +5212,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5103,79 +5286,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E76" s="3">
         <v>50500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>48400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>47400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>46600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>46000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>45500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5245,155 +5434,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44688</v>
+      </c>
+      <c r="E80" s="2">
         <v>44597</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44506</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43680</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43589</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43498</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43407</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43316</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43225</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43134</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43043</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42952</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42861</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42770</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>700</v>
       </c>
       <c r="Y81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5419,8 +5617,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5437,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5452,11 +5651,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -5464,11 +5663,11 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5490,8 +5689,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5561,8 +5763,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5632,8 +5837,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5703,8 +5911,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5774,8 +5985,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5845,79 +6059,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5943,29 +6163,30 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5973,49 +6194,52 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-400</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6085,8 +6309,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6156,79 +6383,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>1900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-200</v>
       </c>
       <c r="V94" s="3">
         <v>-200</v>
       </c>
       <c r="W94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>900</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6254,8 +6487,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6325,8 +6559,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6396,8 +6633,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6467,8 +6707,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6538,26 +6781,29 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6565,23 +6811,23 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6589,28 +6835,31 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6680,75 +6929,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,336 +665,349 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44779</v>
+      </c>
+      <c r="E7" s="2">
         <v>44688</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44597</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44506</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43589</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43498</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43407</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43316</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43225</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43134</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43043</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42952</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42861</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42770</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1021,8 +1034,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1095,8 +1109,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1186,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1243,8 +1263,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,8 +1340,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1342,156 +1368,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1518,8 +1551,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,147 +1561,153 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
       <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1740,156 +1780,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
       </c>
       <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1962,156 +2011,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>700</v>
       </c>
       <c r="Z26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>700</v>
       </c>
       <c r="Z27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2184,8 +2242,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2213,17 +2274,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2231,17 +2292,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2258,8 +2319,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2332,8 +2396,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2406,8 +2473,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,147 +2485,153 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
       <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>700</v>
       </c>
       <c r="Z33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2628,161 +2704,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>700</v>
       </c>
       <c r="Z35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44779</v>
+      </c>
+      <c r="E38" s="2">
         <v>44688</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44597</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44506</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43589</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43498</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43407</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43316</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43225</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43134</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43043</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42952</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42861</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42770</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2809,8 +2894,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2837,93 +2923,97 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E41" s="3">
         <v>26500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27900</v>
-      </c>
-      <c r="W41" s="3">
-        <v>25600</v>
       </c>
       <c r="X41" s="3">
         <v>25600</v>
       </c>
       <c r="Y41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="Z41" s="3">
         <v>25400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="E42" s="3">
         <v>600</v>
       </c>
       <c r="F42" s="3">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="G42" s="3">
         <v>2700</v>
@@ -2932,46 +3022,46 @@
         <v>2700</v>
       </c>
       <c r="I42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J42" s="3">
         <v>3500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10500</v>
-      </c>
-      <c r="M42" s="3">
-        <v>10700</v>
       </c>
       <c r="N42" s="3">
         <v>10700</v>
       </c>
       <c r="O42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="P42" s="3">
         <v>10600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8700</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>6600</v>
       </c>
       <c r="R42" s="3">
         <v>6600</v>
       </c>
       <c r="S42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="T42" s="3">
         <v>2600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>700</v>
-      </c>
-      <c r="V42" s="3">
-        <v>600</v>
       </c>
       <c r="W42" s="3">
         <v>600</v>
@@ -2983,232 +3073,244 @@
         <v>600</v>
       </c>
       <c r="Z42" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E44" s="3">
         <v>16000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>10600</v>
       </c>
       <c r="L44" s="3">
         <v>10600</v>
       </c>
       <c r="M44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N44" s="3">
         <v>10700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7500</v>
-      </c>
-      <c r="W44" s="3">
-        <v>7900</v>
       </c>
       <c r="X44" s="3">
         <v>7900</v>
       </c>
       <c r="Y44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Z44" s="3">
         <v>7600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1300</v>
       </c>
       <c r="L45" s="3">
         <v>1300</v>
       </c>
       <c r="M45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="N45" s="3">
         <v>1500</v>
       </c>
       <c r="O45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3216,73 +3318,76 @@
         <v>47100</v>
       </c>
       <c r="E46" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F46" s="3">
         <v>53600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>52300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>50100</v>
       </c>
       <c r="I46" s="3">
         <v>50100</v>
       </c>
       <c r="J46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K46" s="3">
         <v>47000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>40900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>39700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>39500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>38800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3293,13 +3398,13 @@
         <v>2200</v>
       </c>
       <c r="F47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G47" s="3">
         <v>2100</v>
       </c>
       <c r="H47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I47" s="3">
         <v>2000</v>
@@ -3311,7 +3416,7 @@
         <v>2000</v>
       </c>
       <c r="L47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M47" s="3">
         <v>1900</v>
@@ -3332,54 +3437,57 @@
         <v>1900</v>
       </c>
       <c r="S47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T47" s="3">
         <v>1800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7600</v>
       </c>
       <c r="H48" s="3">
         <v>7600</v>
       </c>
       <c r="I48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J48" s="3">
         <v>6100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5900</v>
       </c>
       <c r="K48" s="3">
         <v>5900</v>
@@ -3391,46 +3499,49 @@
         <v>5900</v>
       </c>
       <c r="N48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O48" s="3">
         <v>5000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>4800</v>
       </c>
       <c r="S48" s="3">
         <v>4800</v>
       </c>
       <c r="T48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="U48" s="3">
         <v>4700</v>
       </c>
       <c r="V48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="W48" s="3">
         <v>4300</v>
       </c>
       <c r="X48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y48" s="3">
         <v>4200</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>4100</v>
       </c>
       <c r="Z48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3503,8 +3614,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3577,8 +3691,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3651,52 +3768,55 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E52" s="3">
         <v>4200</v>
       </c>
       <c r="F52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G52" s="3">
         <v>4900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5200</v>
       </c>
       <c r="L52" s="3">
         <v>5200</v>
       </c>
       <c r="M52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>4300</v>
       </c>
       <c r="R52" s="3">
         <v>4300</v>
@@ -3705,28 +3825,31 @@
         <v>4300</v>
       </c>
       <c r="T52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U52" s="3">
         <v>4400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3799,82 +3922,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E54" s="3">
         <v>60800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>53300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>53900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>54100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>51900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>51800</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>50900</v>
       </c>
       <c r="Z54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3901,8 +4030,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3929,73 +4059,74 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
-      </c>
-      <c r="X57" s="3">
-        <v>800</v>
       </c>
       <c r="Y57" s="3">
         <v>800</v>
@@ -4003,8 +4134,11 @@
       <c r="Z57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4077,156 +4211,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E59" s="3">
         <v>15700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E60" s="3">
         <v>17500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>7300</v>
       </c>
       <c r="Q60" s="3">
         <v>7300</v>
       </c>
       <c r="R60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S60" s="3">
         <v>7900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4299,8 +4442,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4314,7 +4460,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
@@ -4334,35 +4480,35 @@
       <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="3">
+        <v>800</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>800</v>
       </c>
       <c r="X62" s="3">
         <v>800</v>
@@ -4371,10 +4517,13 @@
         <v>800</v>
       </c>
       <c r="Z62" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4447,8 +4596,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4521,8 +4673,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4595,82 +4750,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E66" s="3">
         <v>17600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>7300</v>
       </c>
       <c r="Q66" s="3">
         <v>7300</v>
       </c>
       <c r="R66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S66" s="3">
         <v>7900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4697,8 +4858,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4771,8 +4933,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4845,8 +5010,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4919,8 +5087,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4993,82 +5164,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E72" s="3">
         <v>58800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>59700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>58200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>57100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>59000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>58000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>51900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>48800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>46200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>45300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>44700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>44200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5141,8 +5318,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5215,8 +5395,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5289,82 +5472,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E76" s="3">
         <v>43300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>49100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>48400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>46600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>46000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>45500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5437,161 +5626,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44779</v>
+      </c>
+      <c r="E80" s="2">
         <v>44688</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44597</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44506</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43589</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43498</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43407</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43316</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43225</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43134</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43043</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42952</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42861</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42770</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>700</v>
       </c>
       <c r="Z81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5618,8 +5816,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5639,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5654,11 +5853,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -5666,11 +5865,11 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -5692,8 +5891,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5766,8 +5968,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5840,8 +6045,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5914,8 +6122,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5988,8 +6199,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6062,82 +6276,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6164,32 +6384,33 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -6197,49 +6418,52 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
         <v>-400</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6312,8 +6536,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6386,82 +6613,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-200</v>
       </c>
       <c r="W94" s="3">
         <v>-200</v>
       </c>
       <c r="X94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>900</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6488,8 +6721,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6562,8 +6796,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6636,8 +6873,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6710,8 +6950,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6784,29 +7027,32 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6814,23 +7060,23 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6838,28 +7084,31 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-3200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6932,78 +7181,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,349 +665,361 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44870</v>
+      </c>
+      <c r="E7" s="2">
         <v>44779</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44688</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44597</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44506</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43680</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43589</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43498</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43407</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43316</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43225</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43134</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43043</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42952</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42861</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42770</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E8" s="3">
         <v>13800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1112,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,8 +1205,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1266,8 +1285,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,8 +1365,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1369,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1552,8 +1584,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,150 +1597,156 @@
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>300</v>
       </c>
       <c r="R20" s="3">
         <v>300</v>
       </c>
       <c r="S20" s="3">
+        <v>300</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1783,162 +1822,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
+        <v>400</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2014,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>700</v>
       </c>
       <c r="AA26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>700</v>
       </c>
       <c r="AA27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2245,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,17 +2337,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2295,17 +2355,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2322,8 +2382,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2399,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2476,8 +2542,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,150 +2557,156 @@
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-300</v>
       </c>
       <c r="R32" s="3">
         <v>-300</v>
       </c>
       <c r="S32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>700</v>
       </c>
       <c r="AA33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2707,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>700</v>
       </c>
       <c r="AA35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44870</v>
+      </c>
+      <c r="E38" s="2">
         <v>44779</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44688</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44597</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44506</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43680</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43589</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43498</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43407</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43316</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43225</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43134</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43043</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42952</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42861</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42770</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2895,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2924,99 +3009,103 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E41" s="3">
         <v>20400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>29700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>27900</v>
-      </c>
-      <c r="X41" s="3">
-        <v>25600</v>
       </c>
       <c r="Y41" s="3">
         <v>25600</v>
       </c>
       <c r="Z41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="AA41" s="3">
         <v>25400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E42" s="3">
         <v>2500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>600</v>
       </c>
       <c r="F42" s="3">
         <v>600</v>
       </c>
       <c r="G42" s="3">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="H42" s="3">
         <v>2700</v>
@@ -3025,46 +3114,46 @@
         <v>2700</v>
       </c>
       <c r="J42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10500</v>
-      </c>
-      <c r="N42" s="3">
-        <v>10700</v>
       </c>
       <c r="O42" s="3">
         <v>10700</v>
       </c>
       <c r="P42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Q42" s="3">
         <v>10600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8700</v>
-      </c>
-      <c r="R42" s="3">
-        <v>6600</v>
       </c>
       <c r="S42" s="3">
         <v>6600</v>
       </c>
       <c r="T42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="U42" s="3">
         <v>2600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>700</v>
-      </c>
-      <c r="W42" s="3">
-        <v>600</v>
       </c>
       <c r="X42" s="3">
         <v>600</v>
@@ -3076,323 +3165,338 @@
         <v>600</v>
       </c>
       <c r="AA42" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E44" s="3">
         <v>20400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>10600</v>
       </c>
       <c r="M44" s="3">
         <v>10600</v>
       </c>
       <c r="N44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="O44" s="3">
         <v>10700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7500</v>
-      </c>
-      <c r="X44" s="3">
-        <v>7900</v>
       </c>
       <c r="Y44" s="3">
         <v>7900</v>
       </c>
       <c r="Z44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="AA44" s="3">
         <v>7600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1300</v>
       </c>
       <c r="M45" s="3">
         <v>1300</v>
       </c>
       <c r="N45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="O45" s="3">
         <v>1500</v>
       </c>
       <c r="P45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="E46" s="3">
         <v>47100</v>
       </c>
       <c r="F46" s="3">
+        <v>47100</v>
+      </c>
+      <c r="G46" s="3">
         <v>53600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>50100</v>
       </c>
       <c r="J46" s="3">
         <v>50100</v>
       </c>
       <c r="K46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="L46" s="3">
         <v>47000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>44100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>40900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>39700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>39500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>38800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="3">
         <v>2200</v>
@@ -3401,13 +3505,13 @@
         <v>2200</v>
       </c>
       <c r="G47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
       </c>
       <c r="I47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J47" s="3">
         <v>2000</v>
@@ -3419,7 +3523,7 @@
         <v>2000</v>
       </c>
       <c r="M47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N47" s="3">
         <v>1900</v>
@@ -3440,57 +3544,60 @@
         <v>1900</v>
       </c>
       <c r="T47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U47" s="3">
         <v>1800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7600</v>
       </c>
       <c r="I48" s="3">
         <v>7600</v>
       </c>
       <c r="J48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5900</v>
       </c>
       <c r="L48" s="3">
         <v>5900</v>
@@ -3502,46 +3609,49 @@
         <v>5900</v>
       </c>
       <c r="O48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P48" s="3">
         <v>5000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>4800</v>
       </c>
       <c r="T48" s="3">
         <v>4800</v>
       </c>
       <c r="U48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="V48" s="3">
         <v>4700</v>
       </c>
       <c r="W48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="X48" s="3">
         <v>4300</v>
       </c>
       <c r="Y48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>4200</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>4100</v>
       </c>
       <c r="AA48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3617,8 +3727,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3694,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3771,8 +3887,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,46 +3899,46 @@
         <v>4300</v>
       </c>
       <c r="E52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F52" s="3">
         <v>4200</v>
       </c>
       <c r="G52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H52" s="3">
         <v>4900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>5200</v>
       </c>
       <c r="M52" s="3">
         <v>5200</v>
       </c>
       <c r="N52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O52" s="3">
         <v>5000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>4300</v>
       </c>
       <c r="S52" s="3">
         <v>4300</v>
@@ -3828,28 +3947,31 @@
         <v>4300</v>
       </c>
       <c r="U52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V52" s="3">
         <v>4400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3925,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E54" s="3">
         <v>61100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>64800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>53300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>53900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>54100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>51900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>51800</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>50900</v>
       </c>
       <c r="AA54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4031,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4060,76 +4189,77 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>800</v>
       </c>
       <c r="Z57" s="3">
         <v>800</v>
@@ -4137,8 +4267,11 @@
       <c r="AA57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4214,162 +4347,171 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E59" s="3">
         <v>14500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E60" s="3">
         <v>15900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>7300</v>
       </c>
       <c r="R60" s="3">
         <v>7300</v>
       </c>
       <c r="S60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T60" s="3">
         <v>7900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4445,13 +4587,16 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -4463,7 +4608,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>800</v>
@@ -4483,35 +4628,35 @@
       <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>800</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1100</v>
-      </c>
-      <c r="X62" s="3">
-        <v>800</v>
       </c>
       <c r="Y62" s="3">
         <v>800</v>
@@ -4520,10 +4665,13 @@
         <v>800</v>
       </c>
       <c r="AA62" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4599,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4676,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4753,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E66" s="3">
         <v>15900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>7300</v>
       </c>
       <c r="R66" s="3">
         <v>7300</v>
       </c>
       <c r="S66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T66" s="3">
         <v>7900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4859,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4936,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5013,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5090,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5167,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E72" s="3">
         <v>60700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>58800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>59700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>58200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>57100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>59000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>57000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>48800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>47200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>46200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>45300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>44700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>44200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5321,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5398,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5475,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E76" s="3">
         <v>45200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>49100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>47500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>48400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>47400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>46600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>46000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>45500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5629,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44870</v>
+      </c>
+      <c r="E80" s="2">
         <v>44779</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44688</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44597</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44506</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43680</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43589</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43498</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43407</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43316</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43225</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43134</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43043</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42952</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42861</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42770</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>700</v>
       </c>
       <c r="AA81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5817,8 +6014,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5841,13 +6039,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5856,11 +6054,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5868,11 +6066,11 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -5894,8 +6092,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5971,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6048,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6125,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6202,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6279,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6385,35 +6604,36 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6421,49 +6641,52 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6539,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6616,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-200</v>
       </c>
       <c r="X94" s="3">
         <v>-200</v>
       </c>
       <c r="Y94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>900</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6722,8 +6954,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6799,8 +7032,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6876,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6953,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7030,8 +7272,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,23 +7284,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7063,23 +7308,23 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-4100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -7087,28 +7332,31 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-3200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-600</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7184,81 +7432,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2300</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,361 +665,374 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44961</v>
+      </c>
+      <c r="E7" s="2">
         <v>44870</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44779</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44688</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44597</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44506</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43771</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43680</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43589</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43498</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43407</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43316</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43225</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43134</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43043</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42952</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42861</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42770</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E8" s="3">
         <v>16200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E10" s="3">
         <v>5200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1061,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1142,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1225,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1308,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1391,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1421,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E17" s="3">
         <v>13000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,13 +1618,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1600,153 +1634,159 @@
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>300</v>
       </c>
       <c r="S20" s="3">
         <v>300</v>
       </c>
       <c r="T20" s="3">
+        <v>300</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1825,168 +1865,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2114,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>700</v>
       </c>
       <c r="AB26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>700</v>
       </c>
       <c r="AB27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2340,17 +2401,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2358,17 +2419,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2385,8 +2446,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2529,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,13 +2612,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -2560,153 +2630,159 @@
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-300</v>
       </c>
       <c r="S32" s="3">
         <v>-300</v>
       </c>
       <c r="T32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>700</v>
       </c>
       <c r="AB33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2861,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>700</v>
       </c>
       <c r="AB35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44961</v>
+      </c>
+      <c r="E38" s="2">
         <v>44870</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44779</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44688</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44597</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44506</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43771</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43680</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43589</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43498</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43407</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43316</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43225</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43134</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43043</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42952</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42861</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42770</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3065,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,105 +3096,109 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E41" s="3">
         <v>16700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>30500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>29700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>27300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>27900</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>25600</v>
       </c>
       <c r="Z41" s="3">
         <v>25600</v>
       </c>
       <c r="AA41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="AB41" s="3">
         <v>25400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E42" s="3">
         <v>4500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>600</v>
       </c>
       <c r="G42" s="3">
         <v>600</v>
       </c>
       <c r="H42" s="3">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="I42" s="3">
         <v>2700</v>
@@ -3117,46 +3207,46 @@
         <v>2700</v>
       </c>
       <c r="K42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L42" s="3">
         <v>3500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10500</v>
-      </c>
-      <c r="O42" s="3">
-        <v>10700</v>
       </c>
       <c r="P42" s="3">
         <v>10700</v>
       </c>
       <c r="Q42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="R42" s="3">
         <v>10600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8700</v>
-      </c>
-      <c r="S42" s="3">
-        <v>6600</v>
       </c>
       <c r="T42" s="3">
         <v>6600</v>
       </c>
       <c r="U42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="V42" s="3">
         <v>2600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>700</v>
-      </c>
-      <c r="X42" s="3">
-        <v>600</v>
       </c>
       <c r="Y42" s="3">
         <v>600</v>
@@ -3168,330 +3258,345 @@
         <v>600</v>
       </c>
       <c r="AB42" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E44" s="3">
         <v>22800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>10600</v>
       </c>
       <c r="N44" s="3">
         <v>10600</v>
       </c>
       <c r="O44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="P44" s="3">
         <v>10700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7500</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>7900</v>
       </c>
       <c r="Z44" s="3">
         <v>7900</v>
       </c>
       <c r="AA44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="AB44" s="3">
         <v>7600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1300</v>
       </c>
       <c r="N45" s="3">
         <v>1300</v>
       </c>
       <c r="O45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="P45" s="3">
         <v>1500</v>
       </c>
       <c r="Q45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E46" s="3">
         <v>48100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>47100</v>
       </c>
       <c r="F46" s="3">
         <v>47100</v>
       </c>
       <c r="G46" s="3">
+        <v>47100</v>
+      </c>
+      <c r="H46" s="3">
         <v>53600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>49100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>50100</v>
       </c>
       <c r="K46" s="3">
         <v>50100</v>
       </c>
       <c r="L46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="M46" s="3">
         <v>47000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>44100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>40900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>39700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>39500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>38800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3499,7 +3604,7 @@
         <v>2000</v>
       </c>
       <c r="E47" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="3">
         <v>2200</v>
@@ -3508,13 +3613,13 @@
         <v>2200</v>
       </c>
       <c r="H47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I47" s="3">
         <v>2100</v>
       </c>
       <c r="J47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K47" s="3">
         <v>2000</v>
@@ -3526,7 +3631,7 @@
         <v>2000</v>
       </c>
       <c r="N47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="O47" s="3">
         <v>1900</v>
@@ -3547,60 +3652,63 @@
         <v>1900</v>
       </c>
       <c r="U47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V47" s="3">
         <v>1800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
         <v>7900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7600</v>
       </c>
       <c r="J48" s="3">
         <v>7600</v>
       </c>
       <c r="K48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L48" s="3">
         <v>6100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5900</v>
       </c>
       <c r="M48" s="3">
         <v>5900</v>
@@ -3612,46 +3720,49 @@
         <v>5900</v>
       </c>
       <c r="P48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>4800</v>
       </c>
       <c r="U48" s="3">
         <v>4800</v>
       </c>
       <c r="V48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="W48" s="3">
         <v>4700</v>
       </c>
       <c r="X48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="Y48" s="3">
         <v>4300</v>
       </c>
       <c r="Z48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>4200</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>4100</v>
       </c>
       <c r="AB48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3730,8 +3841,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3924,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,58 +4007,61 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E52" s="3">
         <v>4300</v>
       </c>
       <c r="F52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G52" s="3">
         <v>4200</v>
       </c>
       <c r="H52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I52" s="3">
         <v>4900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5200</v>
       </c>
       <c r="N52" s="3">
         <v>5200</v>
       </c>
       <c r="O52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>4300</v>
       </c>
       <c r="T52" s="3">
         <v>4300</v>
@@ -3950,28 +4070,31 @@
         <v>4300</v>
       </c>
       <c r="V52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W52" s="3">
         <v>4400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4173,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E54" s="3">
         <v>62400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>64800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>53300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>53900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>54100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>51900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>51800</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>50900</v>
       </c>
       <c r="AB54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4289,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,79 +4320,80 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>800</v>
       </c>
       <c r="AA57" s="3">
         <v>800</v>
@@ -4270,8 +4401,11 @@
       <c r="AB57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4350,168 +4484,177 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E59" s="3">
         <v>13300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>7300</v>
       </c>
       <c r="S60" s="3">
         <v>7300</v>
       </c>
       <c r="T60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="U60" s="3">
         <v>7900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4590,16 +4733,19 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4611,7 +4757,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>800</v>
@@ -4631,35 +4777,35 @@
       <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>800</v>
       </c>
       <c r="Z62" s="3">
         <v>800</v>
@@ -4668,10 +4814,13 @@
         <v>800</v>
       </c>
       <c r="AB62" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4899,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4982,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5065,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>7300</v>
       </c>
       <c r="S66" s="3">
         <v>7300</v>
       </c>
       <c r="T66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="U66" s="3">
         <v>7900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5181,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5262,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5345,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5428,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5511,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E72" s="3">
         <v>63400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>58800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>59700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>58200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>57100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>59000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>58000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>56100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>57000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>49800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>51900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>48800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>47500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>47200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>46200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>45300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>44700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>44200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5677,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5760,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5843,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>50600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>49100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>47500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>46200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>48400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>47400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>46600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>46000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>45500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6009,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44961</v>
+      </c>
+      <c r="E80" s="2">
         <v>44870</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44779</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44688</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44597</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44506</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43771</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43680</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43589</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43498</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43407</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43316</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43225</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43134</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43043</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42952</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42861</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42770</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>700</v>
       </c>
       <c r="AB81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,8 +6213,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6042,13 +6241,13 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6057,11 +6256,11 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -6069,11 +6268,11 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -6095,8 +6294,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6377,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6460,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6543,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6626,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6709,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,38 +6825,39 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -6644,49 +6865,52 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6989,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,8 +7072,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6854,79 +7084,82 @@
         <v>-2200</v>
       </c>
       <c r="E94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-200</v>
       </c>
       <c r="Y94" s="3">
         <v>-200</v>
       </c>
       <c r="Z94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>900</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,8 +7188,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7035,8 +7269,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7352,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7435,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,8 +7518,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7287,23 +7533,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-8700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7311,23 +7557,23 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-4100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -7335,28 +7581,31 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-3200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-600</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7435,84 +7684,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,374 +665,387 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45052</v>
+      </c>
+      <c r="E7" s="2">
         <v>44961</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44870</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44779</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44688</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44597</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44506</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43771</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43680</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43589</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43498</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43407</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43316</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43225</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43134</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43043</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42952</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42861</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42770</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E8" s="3">
         <v>17200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
         <v>11300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,8 +1075,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1159,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,8 +1245,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1311,8 +1331,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1394,8 +1417,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1422,174 +1448,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1619,16 +1652,17 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
@@ -1637,73 +1671,76 @@
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>300</v>
       </c>
       <c r="T20" s="3">
         <v>300</v>
       </c>
       <c r="U20" s="3">
+        <v>300</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1711,82 +1748,85 @@
         <v>4000</v>
       </c>
       <c r="E21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1868,174 +1908,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,174 +2166,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>700</v>
       </c>
       <c r="AC26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>700</v>
       </c>
       <c r="AC27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2366,8 +2424,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2404,17 +2465,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2422,17 +2483,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2449,8 +2510,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2596,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2615,16 +2682,19 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
@@ -2633,156 +2703,162 @@
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-300</v>
       </c>
       <c r="T32" s="3">
         <v>-300</v>
       </c>
       <c r="U32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>700</v>
       </c>
       <c r="AC33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2864,179 +2940,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>700</v>
       </c>
       <c r="AC35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45052</v>
+      </c>
+      <c r="E38" s="2">
         <v>44961</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44870</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44779</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44688</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44597</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44506</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43771</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43680</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43589</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43498</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43407</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43316</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43225</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43134</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43043</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42952</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42861</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42770</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3066,8 +3151,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3097,111 +3183,115 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E41" s="3">
         <v>17800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>30500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>27300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>27900</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>25600</v>
       </c>
       <c r="AA41" s="3">
         <v>25600</v>
       </c>
       <c r="AB41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="AC41" s="3">
         <v>25400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E42" s="3">
         <v>6400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>600</v>
       </c>
       <c r="H42" s="3">
         <v>600</v>
       </c>
       <c r="I42" s="3">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="J42" s="3">
         <v>2700</v>
@@ -3210,46 +3300,46 @@
         <v>2700</v>
       </c>
       <c r="L42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M42" s="3">
         <v>3500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10500</v>
-      </c>
-      <c r="P42" s="3">
-        <v>10700</v>
       </c>
       <c r="Q42" s="3">
         <v>10700</v>
       </c>
       <c r="R42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="S42" s="3">
         <v>10600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8700</v>
-      </c>
-      <c r="T42" s="3">
-        <v>6600</v>
       </c>
       <c r="U42" s="3">
         <v>6600</v>
       </c>
       <c r="V42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="W42" s="3">
         <v>2600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>700</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>600</v>
       </c>
       <c r="Z42" s="3">
         <v>600</v>
@@ -3261,93 +3351,99 @@
         <v>600</v>
       </c>
       <c r="AC42" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3355,248 +3451,257 @@
         <v>23300</v>
       </c>
       <c r="E44" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F44" s="3">
         <v>22800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>10600</v>
       </c>
       <c r="O44" s="3">
         <v>10600</v>
       </c>
       <c r="P44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Q44" s="3">
         <v>10700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7500</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>7900</v>
       </c>
       <c r="AA44" s="3">
         <v>7900</v>
       </c>
       <c r="AB44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="AC44" s="3">
         <v>7600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1300</v>
       </c>
       <c r="O45" s="3">
         <v>1300</v>
       </c>
       <c r="P45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Q45" s="3">
         <v>1500</v>
       </c>
       <c r="R45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E46" s="3">
         <v>51500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>48100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>47100</v>
       </c>
       <c r="G46" s="3">
         <v>47100</v>
       </c>
       <c r="H46" s="3">
+        <v>47100</v>
+      </c>
+      <c r="I46" s="3">
         <v>53600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>49100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>50100</v>
       </c>
       <c r="L46" s="3">
         <v>50100</v>
       </c>
       <c r="M46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="N46" s="3">
         <v>47000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>46100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>44100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>40900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>42100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>39700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>39500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>38800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3607,7 +3712,7 @@
         <v>2000</v>
       </c>
       <c r="F47" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="3">
         <v>2200</v>
@@ -3616,13 +3721,13 @@
         <v>2200</v>
       </c>
       <c r="I47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J47" s="3">
         <v>2100</v>
       </c>
       <c r="K47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="L47" s="3">
         <v>2000</v>
@@ -3634,7 +3739,7 @@
         <v>2000</v>
       </c>
       <c r="O47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="P47" s="3">
         <v>1900</v>
@@ -3655,63 +3760,66 @@
         <v>1900</v>
       </c>
       <c r="V47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W47" s="3">
         <v>1800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>7600</v>
       </c>
       <c r="K48" s="3">
         <v>7600</v>
       </c>
       <c r="L48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="M48" s="3">
         <v>6100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5900</v>
       </c>
       <c r="N48" s="3">
         <v>5900</v>
@@ -3723,46 +3831,49 @@
         <v>5900</v>
       </c>
       <c r="Q48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>4800</v>
       </c>
       <c r="V48" s="3">
         <v>4800</v>
       </c>
       <c r="W48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="X48" s="3">
         <v>4700</v>
       </c>
       <c r="Y48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="Z48" s="3">
         <v>4300</v>
       </c>
       <c r="AA48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AB48" s="3">
         <v>4200</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>4100</v>
       </c>
       <c r="AC48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3844,8 +3955,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3927,8 +4041,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4010,61 +4127,64 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
         <v>4400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4300</v>
       </c>
       <c r="F52" s="3">
         <v>4300</v>
       </c>
       <c r="G52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H52" s="3">
         <v>4200</v>
       </c>
       <c r="I52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J52" s="3">
         <v>4900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>5200</v>
       </c>
       <c r="O52" s="3">
         <v>5200</v>
       </c>
       <c r="P52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>5000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>4300</v>
       </c>
       <c r="U52" s="3">
         <v>4300</v>
@@ -4073,28 +4193,31 @@
         <v>4300</v>
       </c>
       <c r="W52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X52" s="3">
         <v>4400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4176,91 +4299,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E54" s="3">
         <v>66000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>61100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>60800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>64800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>55000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>53300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>53900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>54100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>51900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>51800</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>50900</v>
       </c>
       <c r="AC54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4290,8 +4419,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4321,82 +4451,83 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>800</v>
       </c>
       <c r="AB57" s="3">
         <v>800</v>
@@ -4404,8 +4535,11 @@
       <c r="AC57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4487,174 +4621,183 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E59" s="3">
         <v>14200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
         <v>15000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>7300</v>
       </c>
       <c r="T60" s="3">
         <v>7300</v>
       </c>
       <c r="U60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="V60" s="3">
         <v>7900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4736,19 +4879,22 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -4760,7 +4906,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>800</v>
@@ -4780,35 +4926,35 @@
       <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="3">
+        <v>800</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>800</v>
       </c>
       <c r="AA62" s="3">
         <v>800</v>
@@ -4817,10 +4963,13 @@
         <v>800</v>
       </c>
       <c r="AC62" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,8 +5051,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,8 +5137,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5068,91 +5223,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E66" s="3">
         <v>15000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>7300</v>
       </c>
       <c r="T66" s="3">
         <v>7300</v>
       </c>
       <c r="U66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="V66" s="3">
         <v>7900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5182,8 +5343,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5265,8 +5427,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5348,8 +5513,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5431,8 +5599,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5514,91 +5685,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E72" s="3">
         <v>66500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>58800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>59700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>58200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>57100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>59000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>58000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>56100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>57000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>49800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>51900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>50400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>48800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>47500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>47200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>46200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>45300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>44700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>44200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5680,8 +5857,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5763,8 +5943,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5846,91 +6029,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E76" s="3">
         <v>51000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>50600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>49100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>46200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>48400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>47400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>46600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>46000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>45500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6012,179 +6201,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45052</v>
+      </c>
+      <c r="E80" s="2">
         <v>44961</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44870</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44779</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44688</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44597</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44506</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43771</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43680</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43589</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43498</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43407</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43316</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43225</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43134</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43043</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42952</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42861</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42770</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>700</v>
       </c>
       <c r="AC81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6214,8 +6412,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6244,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6259,11 +6458,11 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -6271,11 +6470,11 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
@@ -6297,8 +6496,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6380,8 +6582,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6463,8 +6668,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6546,8 +6754,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6629,8 +6840,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6712,91 +6926,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6826,8 +7046,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6835,32 +7056,32 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -6868,49 +7089,52 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6992,8 +7216,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7075,8 +7302,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7087,79 +7317,82 @@
         <v>-2200</v>
       </c>
       <c r="F94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-200</v>
       </c>
       <c r="Z94" s="3">
         <v>-200</v>
       </c>
       <c r="AA94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>900</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7189,8 +7422,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7272,8 +7506,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7355,8 +7592,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7438,8 +7678,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7521,13 +7764,16 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7536,23 +7782,23 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-8700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7560,23 +7806,23 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-4100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7584,28 +7830,31 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-3200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-600</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7687,87 +7936,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>NOBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,387 +665,400 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45143</v>
+      </c>
+      <c r="E7" s="2">
         <v>45052</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44961</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44870</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44779</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44688</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44597</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44506</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43771</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43680</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43589</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43498</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43407</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43316</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43225</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43134</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43043</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42952</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42861</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42770</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E8" s="3">
         <v>16800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E9" s="3">
         <v>10800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1076,8 +1089,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1162,8 +1176,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1248,8 +1265,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1354,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1420,8 +1443,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1449,180 +1475,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E17" s="3">
         <v>13000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,19 +1686,20 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1674,159 +1708,165 @@
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>300</v>
       </c>
       <c r="U20" s="3">
         <v>300</v>
       </c>
       <c r="V20" s="3">
+        <v>300</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="E21" s="3">
         <v>4000</v>
       </c>
       <c r="F21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1911,180 +1951,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2169,180 +2218,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1100</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>700</v>
       </c>
       <c r="AD26" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1100</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>700</v>
       </c>
       <c r="AD27" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2427,8 +2485,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2468,17 +2529,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2486,17 +2547,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2513,8 +2574,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2599,8 +2663,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2685,19 +2752,22 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -2706,159 +2776,165 @@
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-300</v>
       </c>
       <c r="U32" s="3">
         <v>-300</v>
       </c>
       <c r="V32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1100</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>700</v>
       </c>
       <c r="AD33" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2943,185 +3019,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1100</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>700</v>
       </c>
       <c r="AD35" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45143</v>
+      </c>
+      <c r="E38" s="2">
         <v>45052</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44961</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44870</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44779</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44688</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44597</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44506</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43771</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43680</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43589</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43498</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43407</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43316</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43225</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43134</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43043</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42952</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42861</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42770</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3152,8 +3237,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3184,117 +3270,121 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>30500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>27300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>27900</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>25600</v>
       </c>
       <c r="AB41" s="3">
         <v>25600</v>
       </c>
       <c r="AC41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="AD41" s="3">
         <v>25400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E42" s="3">
         <v>8300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>600</v>
       </c>
       <c r="I42" s="3">
         <v>600</v>
       </c>
       <c r="J42" s="3">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="K42" s="3">
         <v>2700</v>
@@ -3303,46 +3393,46 @@
         <v>2700</v>
       </c>
       <c r="M42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N42" s="3">
         <v>3500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10500</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>10700</v>
       </c>
       <c r="R42" s="3">
         <v>10700</v>
       </c>
       <c r="S42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="T42" s="3">
         <v>10600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8700</v>
-      </c>
-      <c r="U42" s="3">
-        <v>6600</v>
       </c>
       <c r="V42" s="3">
         <v>6600</v>
       </c>
       <c r="W42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="X42" s="3">
         <v>2600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>700</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>600</v>
       </c>
       <c r="AA42" s="3">
         <v>600</v>
@@ -3354,359 +3444,374 @@
         <v>600</v>
       </c>
       <c r="AD42" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23300</v>
+        <v>22700</v>
       </c>
       <c r="E44" s="3">
         <v>23300</v>
       </c>
       <c r="F44" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G44" s="3">
         <v>22800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>10600</v>
       </c>
       <c r="P44" s="3">
         <v>10600</v>
       </c>
       <c r="Q44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R44" s="3">
         <v>10700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7500</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>7900</v>
       </c>
       <c r="AB44" s="3">
         <v>7900</v>
       </c>
       <c r="AC44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="AD44" s="3">
         <v>7600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1300</v>
       </c>
       <c r="P45" s="3">
         <v>1300</v>
       </c>
       <c r="Q45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="R45" s="3">
         <v>1500</v>
       </c>
       <c r="S45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E46" s="3">
         <v>49600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>51500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>48100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>47100</v>
       </c>
       <c r="H46" s="3">
         <v>47100</v>
       </c>
       <c r="I46" s="3">
+        <v>47100</v>
+      </c>
+      <c r="J46" s="3">
         <v>53600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>50100</v>
       </c>
       <c r="M46" s="3">
         <v>50100</v>
       </c>
       <c r="N46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="O46" s="3">
         <v>47000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>44500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>46800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>46100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>44100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>40900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>42100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>39700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>39500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>38800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E47" s="3">
         <v>2000</v>
@@ -3715,7 +3820,7 @@
         <v>2000</v>
       </c>
       <c r="G47" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
         <v>2200</v>
@@ -3724,13 +3829,13 @@
         <v>2200</v>
       </c>
       <c r="J47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K47" s="3">
         <v>2100</v>
       </c>
       <c r="L47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M47" s="3">
         <v>2000</v>
@@ -3742,7 +3847,7 @@
         <v>2000</v>
       </c>
       <c r="P47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q47" s="3">
         <v>1900</v>
@@ -3763,66 +3868,69 @@
         <v>1900</v>
       </c>
       <c r="W47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X47" s="3">
         <v>1800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>7600</v>
       </c>
       <c r="L48" s="3">
         <v>7600</v>
       </c>
       <c r="M48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="N48" s="3">
         <v>6100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5900</v>
       </c>
       <c r="O48" s="3">
         <v>5900</v>
@@ -3834,46 +3942,49 @@
         <v>5900</v>
       </c>
       <c r="R48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S48" s="3">
         <v>5000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4900</v>
-      </c>
-      <c r="V48" s="3">
-        <v>4800</v>
       </c>
       <c r="W48" s="3">
         <v>4800</v>
       </c>
       <c r="X48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="Y48" s="3">
         <v>4700</v>
       </c>
       <c r="Z48" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="AA48" s="3">
         <v>4300</v>
       </c>
       <c r="AB48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AC48" s="3">
         <v>4200</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>4100</v>
       </c>
       <c r="AD48" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3958,8 +4069,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4044,8 +4158,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4130,8 +4247,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4139,55 +4259,55 @@
         <v>4500</v>
       </c>
       <c r="E52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F52" s="3">
         <v>4400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4300</v>
       </c>
       <c r="G52" s="3">
         <v>4300</v>
       </c>
       <c r="H52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I52" s="3">
         <v>4200</v>
       </c>
       <c r="J52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K52" s="3">
         <v>4900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>5200</v>
       </c>
       <c r="P52" s="3">
         <v>5200</v>
       </c>
       <c r="Q52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R52" s="3">
         <v>5000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>4300</v>
       </c>
       <c r="V52" s="3">
         <v>4300</v>
@@ -4196,28 +4316,31 @@
         <v>4300</v>
       </c>
       <c r="X52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y52" s="3">
         <v>4400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4302,94 +4425,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E54" s="3">
         <v>64400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>60800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>57000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>55000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>53300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>53900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>54100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>51900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>51800</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>50900</v>
       </c>
       <c r="AD54" s="3">
         <v>50900</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4420,8 +4549,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4452,85 +4582,86 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>700</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>800</v>
       </c>
       <c r="AC57" s="3">
         <v>800</v>
@@ -4538,8 +4669,11 @@
       <c r="AD57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4624,180 +4758,189 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
         <v>13900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>7300</v>
       </c>
       <c r="U60" s="3">
         <v>7300</v>
       </c>
       <c r="V60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="W60" s="3">
         <v>7900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4882,8 +5025,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4893,11 +5039,11 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4909,7 +5055,7 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
@@ -4929,35 +5075,35 @@
       <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>800</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
         <v>100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>800</v>
       </c>
       <c r="AB62" s="3">
         <v>800</v>
@@ -4966,10 +5112,13 @@
         <v>800</v>
       </c>
       <c r="AD62" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5054,8 +5203,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5140,8 +5292,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5226,94 +5381,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E66" s="3">
         <v>13900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>7300</v>
       </c>
       <c r="U66" s="3">
         <v>7300</v>
       </c>
       <c r="V66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="W66" s="3">
         <v>7900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5344,8 +5505,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5430,8 +5592,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5516,8 +5681,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5602,8 +5770,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5688,94 +5859,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E72" s="3">
         <v>66000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>66500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>58800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>59700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>59000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>58000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>56100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>57000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>49800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>51900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>50400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>48800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>47500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>47200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>46200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>45300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>44700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>44200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5860,8 +6037,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5946,8 +6126,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6032,94 +6215,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E76" s="3">
         <v>50500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>49500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>48300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>49100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>47500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>46200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>48400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>47400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>46600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>46000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>45500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6204,185 +6393,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45143</v>
+      </c>
+      <c r="E80" s="2">
         <v>45052</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44961</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44870</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44779</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44688</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44597</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44506</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43771</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43680</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43589</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43498</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43407</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43316</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43225</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43134</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43043</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42952</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42861</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42770</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42679</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1100</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>700</v>
       </c>
       <c r="AD81" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6413,8 +6611,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6446,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6461,11 +6660,11 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -6473,11 +6672,11 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
@@ -6499,8 +6698,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6585,8 +6787,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6671,8 +6876,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6757,8 +6965,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6843,8 +7054,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6929,94 +7143,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7047,44 +7267,45 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -7092,49 +7313,52 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-100</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7219,8 +7443,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7305,13 +7532,16 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2200</v>
+        <v>500</v>
       </c>
       <c r="E94" s="3">
         <v>-2200</v>
@@ -7320,79 +7550,82 @@
         <v>-2200</v>
       </c>
       <c r="G94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-200</v>
       </c>
       <c r="AA94" s="3">
         <v>-200</v>
       </c>
       <c r="AB94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>900</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7423,8 +7656,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7509,8 +7743,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7595,8 +7832,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7681,8 +7921,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7767,17 +8010,20 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -7785,23 +8031,23 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-8700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7809,23 +8055,23 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7833,28 +8079,31 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-600</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7939,90 +8188,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2300</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2300</v>
       </c>
     </row>
